--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454957.909440134</v>
+        <v>2530487.579104938</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>270.7706607858352</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>18.13496243011834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>156.5638745616934</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>197.2982592812052</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136.1119223327186</v>
+        <v>323.1973192220553</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>16.55626470541132</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.65520119711156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>186.3676115384771</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>70.83586360500141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0725670814547</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>43.86617416758092</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>122.0153542106072</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>94.16960696316943</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>125.1833565213717</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>109.350999845631</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>84.83831713889253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>196.858818838261</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.4175504636968</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.2438704591218</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.9955446623089</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>26.74904583214665</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>49.14757544257679</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>3.911519871443938</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>130.5297382042811</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>146.2618317737551</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>73.60252193665868</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>84.53839651477854</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>202.6528182804441</v>
       </c>
       <c r="V43" t="n">
-        <v>24.34682769251222</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>86.35693236788119</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>101.2898147863548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>1391.463776022345</v>
       </c>
       <c r="C2" t="n">
-        <v>898.8784838925781</v>
+        <v>1022.501259081933</v>
       </c>
       <c r="D2" t="n">
-        <v>898.8784838925781</v>
+        <v>1022.501259081933</v>
       </c>
       <c r="E2" t="n">
-        <v>898.8784838925781</v>
+        <v>636.7130064836888</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>225.7271016940812</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>1778.063616086466</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>551.822117562146</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>924.4350995402963</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1701.17427158023</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1311.034939604418</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598711</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>683.8197173704941</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>683.8197173704941</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>683.8197173704941</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>683.8197173704941</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>683.8197173704941</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750362</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.8207968750362</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,25 +5059,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766199</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656581</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.438140992646</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1375.668438021935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1375.668438021935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1086.539799235494</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>831.8553110296066</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>542.438140992646</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>542.438140992646</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.438140992646</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5279,7 +5281,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.274692278279</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.738453580939</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2520.760934363148</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1003.591713218973</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>714.1745431820127</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822458</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>841.7907383782456</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C19" t="n">
-        <v>672.8545554503387</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>522.7379160380029</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>522.7379160380029</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>375.8479685400926</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6726468599132</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X19" t="n">
-        <v>1244.231782352015</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y19" t="n">
-        <v>1023.439203208485</v>
+        <v>1098.712528333286</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,28 +5773,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3607.068487499069</v>
+        <v>3628.091576844586</v>
       </c>
       <c r="C22" t="n">
-        <v>3607.068487499069</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="D22" t="n">
-        <v>3607.068487499069</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.7234906252</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S22" t="n">
-        <v>4664.084199738852</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.298784528359</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.170145741917</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V22" t="n">
-        <v>3896.48565753603</v>
+        <v>4327.146762609804</v>
       </c>
       <c r="W22" t="n">
-        <v>3607.068487499069</v>
+        <v>4037.729592572843</v>
       </c>
       <c r="X22" t="n">
-        <v>3607.068487499069</v>
+        <v>3809.740041674826</v>
       </c>
       <c r="Y22" t="n">
-        <v>3607.068487499069</v>
+        <v>3809.740041674826</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>2969.450898153559</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>3276.77103143352</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>4081.182609697671</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>638.8778922268339</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6229,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>217.414611321204</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W28" t="n">
-        <v>785.7936752259998</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X28" t="n">
-        <v>785.7936752259998</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y28" t="n">
-        <v>565.0010960824696</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615139</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4833.835334800003</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4633.915324715555</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4633.915324715555</v>
       </c>
       <c r="U31" t="n">
-        <v>1449.27225495934</v>
+        <v>4633.915324715555</v>
       </c>
       <c r="V31" t="n">
-        <v>1449.27225495934</v>
+        <v>4379.230836509669</v>
       </c>
       <c r="W31" t="n">
-        <v>1159.855084922379</v>
+        <v>4089.813666472708</v>
       </c>
       <c r="X31" t="n">
-        <v>931.8655340243621</v>
+        <v>4089.813666472708</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.072954880832</v>
+        <v>3869.021087329178</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6698,19 +6700,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6780,16 +6782,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>485.5200852635878</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
         <v>2016.139981183168</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3907.801489902814</v>
+        <v>3872.670748462633</v>
       </c>
       <c r="C34" t="n">
-        <v>3738.865306974908</v>
+        <v>3872.670748462633</v>
       </c>
       <c r="D34" t="n">
-        <v>3738.865306974908</v>
+        <v>3722.554109050297</v>
       </c>
       <c r="E34" t="n">
-        <v>3738.865306974908</v>
+        <v>3574.641015467904</v>
       </c>
       <c r="F34" t="n">
-        <v>3738.865306974908</v>
+        <v>3574.641015467904</v>
       </c>
       <c r="G34" t="n">
         <v>3570.689985294728</v>
@@ -6880,28 +6882,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4418.011239083306</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>4418.011239083306</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V34" t="n">
-        <v>4418.011239083306</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W34" t="n">
-        <v>4128.594069046345</v>
+        <v>4282.30876419089</v>
       </c>
       <c r="X34" t="n">
-        <v>4128.594069046345</v>
+        <v>4054.319213292873</v>
       </c>
       <c r="Y34" t="n">
-        <v>3907.801489902814</v>
+        <v>4054.319213292873</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2484.468242641992</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.6416868225887</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="C37" t="n">
-        <v>544.6416868225887</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S37" t="n">
-        <v>1351.177046544008</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T37" t="n">
-        <v>1351.177046544008</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U37" t="n">
-        <v>1062.048407757567</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="V37" t="n">
-        <v>1062.048407757567</v>
+        <v>4093.256030811468</v>
       </c>
       <c r="W37" t="n">
-        <v>772.631237720606</v>
+        <v>4018.910049057267</v>
       </c>
       <c r="X37" t="n">
-        <v>544.6416868225887</v>
+        <v>3790.92049815925</v>
       </c>
       <c r="Y37" t="n">
-        <v>544.6416868225887</v>
+        <v>3790.92049815925</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>475.7924673804756</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7418,40 +7420,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>843.8929204411535</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C43" t="n">
-        <v>674.9567375132466</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D43" t="n">
-        <v>524.8400981009108</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1070.431038902515</v>
       </c>
       <c r="V43" t="n">
-        <v>1474.323515312941</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="W43" t="n">
-        <v>1474.323515312941</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="X43" t="n">
-        <v>1246.333964414923</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y43" t="n">
-        <v>1025.541385271393</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7634,46 +7636,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.969903867171</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1411.687045943881</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W46" t="n">
-        <v>420.3226148324571</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>230.7151863772045</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.83804904622872</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>230.7151863772035</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>73.53204524669889</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,25 +9956,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>43.65987261462533</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10428,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.64859338270685</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>50.62661940943656</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.49733361305314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>38.8600230194989</v>
+        <v>444.4889386861661</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>38.8600230194989</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>234.4116509503168</v>
       </c>
       <c r="N45" t="n">
-        <v>169.2863157167187</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>75.90545577299609</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>157.9680363606586</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>54.64862366056555</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>39.56282852190509</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,10 +23946,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>113.0824928447107</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>55.27882448556696</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>56.82927063493101</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.58810972281552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>29.91828370522718</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>83.21530657164615</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>237.0897769560005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>162.5820485919336</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>91.01782285410812</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>51.65897820984816</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>212.9204763999323</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>81.95517194859904</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>83.58453411813326</v>
       </c>
       <c r="V43" t="n">
-        <v>227.7908156313158</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>111.5638776157221</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815867.4483931664</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516047</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516045</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="K2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196783</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.136619678</v>
       </c>
       <c r="L2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26439,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26454,7 +26456,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26500,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775717</v>
+        <v>-234346.6323775716</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369727</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369725</v>
+        <v>355621.2468369724</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737356</v>
+        <v>-65200.89542737376</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.1410495222</v>
+        <v>459959.1410495223</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.1410495226</v>
+        <v>459959.1410495221</v>
       </c>
       <c r="H6" t="n">
         <v>459959.1410495224</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.1410495227</v>
+        <v>459959.1410495219</v>
       </c>
       <c r="J6" t="n">
         <v>283535.9218569295</v>
       </c>
       <c r="K6" t="n">
-        <v>459959.1410495223</v>
+        <v>459959.1410495224</v>
       </c>
       <c r="L6" t="n">
         <v>459959.1410495222</v>
@@ -26555,13 +26557,13 @@
         <v>325158.1258156853</v>
       </c>
       <c r="N6" t="n">
-        <v>459959.1410495224</v>
+        <v>459959.1410495223</v>
       </c>
       <c r="O6" t="n">
-        <v>459959.1410495224</v>
+        <v>459959.1410495221</v>
       </c>
       <c r="P6" t="n">
-        <v>459959.1410495223</v>
+        <v>459959.1410495222</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>136.1053849558762</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>395.6492075906767</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.74592769735756</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>27.73684617687908</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>233.6191783457504</v>
+        <v>46.53378145641369</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>130.1089272747465</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.9294521549832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>168.3154300822058</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.4020750510522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.75941310048265</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>102.7990178125769</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28986,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -30457,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>563.9097597752173</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.8510818313028</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>563.9097597752163</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799247</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>322.7897502027232</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>326.0235748557334</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>408.1301468599573</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>224.2240319706461</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599028</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.5103663981272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>349.2844000699651</v>
+        <v>754.9133157366323</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,16 +37867,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>349.2844000699651</v>
+        <v>384.0729704331731</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -38020,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38096,16 +38098,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>544.836028000783</v>
       </c>
       <c r="N45" t="n">
-        <v>502.4808891147315</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
@@ -38114,10 +38116,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523470.564213227</v>
+        <v>2528409.827062259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>331.7615209354891</v>
+        <v>313.6918910077509</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>74.53436060286491</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>114.3028656524355</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.4020972507761</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>74.62372476861172</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>67.41850321461121</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>132.3879643982075</v>
       </c>
       <c r="I8" t="n">
-        <v>98.63122914173799</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274091</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.8853054826702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.8120409536877</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.5610607350007</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>101.0041688483414</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113184</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151923</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.3521919907244</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>122.6519788371606</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>22.1265851949664</v>
+        <v>73.16334503090525</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>234.1231749377856</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>85.74850411421532</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>58.1909539032693</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452451</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4315,10 +4315,10 @@
         <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>549.4671059840632</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="F2" t="n">
-        <v>542.5216052348597</v>
+        <v>524.2694537927</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.346854164887</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C4" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>129.2302147525512</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>129.2302147525512</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>129.2302147525512</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>129.2302147525512</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="5">
@@ -4564,13 +4564,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2621.771591251948</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2403.136924224011</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714565</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714565</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714565</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714565</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7222632714565</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>660.0294860098572</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714565</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.714918859356</v>
+        <v>1170.083887280541</v>
       </c>
       <c r="E8" t="n">
-        <v>1309.714918859356</v>
+        <v>1170.083887280541</v>
       </c>
       <c r="F8" t="n">
-        <v>898.7290140697485</v>
+        <v>759.0979824909339</v>
       </c>
       <c r="G8" t="n">
-        <v>480.7652059679353</v>
+        <v>341.1341743891207</v>
       </c>
       <c r="H8" t="n">
-        <v>153.5704860039382</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
         <v>667.8624625746712</v>
@@ -4947,22 +4947,22 @@
         <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570741</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201135</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>531.1091870201135</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.1091870201135</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5363,13 +5363,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.5778825909698</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="C16" t="n">
-        <v>530.6416996630629</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5250602507272</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909698</v>
+        <v>199.2415044384084</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,31 +5530,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636254</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395484</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609671</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550802</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181196</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,31 +6293,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211725</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609671</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>963.6521305054455</v>
+        <v>935.9652529689267</v>
       </c>
       <c r="W28" t="n">
-        <v>674.2349604684848</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="X28" t="n">
-        <v>674.2349604684848</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.2349604684848</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6454,37 +6454,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,31 +6530,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395484</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
         <v>2123.441607278215</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,28 +6639,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765193</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1212.381609853036</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>923.2529710665938</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>923.2529710665938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>633.8358010296332</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>633.8358010296332</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>306.1124721890552</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1044.311772267563</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>754.8946022306027</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>526.9050513325853</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>306.1124721890552</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,25 +7824,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298099</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
-        <v>73.53204524669923</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776742</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.94667469926705</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>15.6219216928815</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>14.87290191156845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>65.48939961503622</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.89462910790343</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518765</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>230.0110581288616</v>
+        <v>178.9742982929228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>52.39982339880538</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>135.7990569441739</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0558671953585</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388531</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516046</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516047</v>
-      </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="I2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196775</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196777</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26435,31 +26435,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775717</v>
+        <v>-234346.6323775718</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369725</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369726</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="E6" t="n">
-        <v>-66175.48668709565</v>
+        <v>-65298.35455334591</v>
       </c>
       <c r="F6" t="n">
-        <v>458984.5497898011</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="G6" t="n">
-        <v>458984.5497898004</v>
+        <v>459861.68192355</v>
       </c>
       <c r="H6" t="n">
-        <v>458984.5497898004</v>
+        <v>459861.6819235503</v>
       </c>
       <c r="I6" t="n">
-        <v>458984.5497898004</v>
+        <v>459861.6819235501</v>
       </c>
       <c r="J6" t="n">
-        <v>282561.3305972074</v>
+        <v>283438.4627309573</v>
       </c>
       <c r="K6" t="n">
-        <v>458984.5497898002</v>
+        <v>459861.6819235503</v>
       </c>
       <c r="L6" t="n">
-        <v>458984.5497898003</v>
+        <v>459861.6819235503</v>
       </c>
       <c r="M6" t="n">
-        <v>324183.5345559634</v>
+        <v>325060.6666897127</v>
       </c>
       <c r="N6" t="n">
-        <v>458984.5497898007</v>
+        <v>459861.68192355</v>
       </c>
       <c r="O6" t="n">
-        <v>458984.5497898005</v>
+        <v>459861.6819235501</v>
       </c>
       <c r="P6" t="n">
-        <v>458984.5497898003</v>
+        <v>459861.6819235498</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.02264908530589</v>
+        <v>100.092279013044</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>81.63652823893024</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>111.4067897366017</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.3317444127045</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>99.79198804035981</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9594002052140524</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>157.6166022434731</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>191.5348083661497</v>
       </c>
       <c r="I8" t="n">
-        <v>53.30008710312326</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-2.147365782211761e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336986</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>383.9564222971657</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221098</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336987</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415072</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187031</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
